--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -179,9 +179,6 @@
     <t>type_charge</t>
   </si>
   <si>
-    <t>Tipo de Masaje</t>
-  </si>
-  <si>
     <t>type_massage</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Fotografías de Servicios</t>
+  </si>
+  <si>
+    <t>Configurar Servicios</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:XFD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,10 +864,10 @@
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -45973,7 +45973,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -45999,7 +45999,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -46126,7 +46126,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
